--- a/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02465824121271625</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08477413633605557</v>
+        <v>0.0847741363360556</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03857312395769458</v>
+        <v>0.0384485604973031</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02455295216242457</v>
+        <v>0.02467374872698353</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05914054872618784</v>
+        <v>0.05937551683190744</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007824791969931738</v>
+        <v>0.008004965672153235</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03709553632790561</v>
+        <v>0.03724411333239355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0160932128982333</v>
+        <v>0.01594857384159737</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04306165491437076</v>
+        <v>0.04319447744942725</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1726375769669629</v>
+        <v>0.1801335535304806</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2262992268052626</v>
+        <v>0.232107533271788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1163336129395668</v>
+        <v>0.1148257972786876</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3050157875634656</v>
+        <v>0.2892075932327922</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1949810425109963</v>
+        <v>0.1974887967541087</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.1473708564181939</v>
+        <v>0.1376362213896031</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06626055263839511</v>
+        <v>0.0758318761918155</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1425510859694184</v>
+        <v>0.1385724180899005</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1506654414367052</v>
+        <v>0.1516002297206655</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08432847426829704</v>
+        <v>0.08138413878534161</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1761192573881706</v>
+        <v>0.17631309536964</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.0324116953996799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1086489469569359</v>
+        <v>0.108648946956936</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1189310234428861</v>
@@ -840,38 +840,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07302065752309188</v>
+        <v>0.07187325615543241</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01023554164903973</v>
+        <v>0.01009474002869757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06094386828268336</v>
+        <v>0.06030292210000906</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04146172280740412</v>
+        <v>0.04069059656810817</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.01715221332057572</v>
+        <v>0.01690940881257518</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02543255928906419</v>
+        <v>0.02407880045527627</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07697581791637294</v>
+        <v>0.07819855041672136</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01672348931873767</v>
+        <v>0.01673753730615395</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05489585002748543</v>
+        <v>0.05582049901662257</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1931937433913609</v>
+        <v>0.1940862168600114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1952811575237506</v>
+        <v>0.1855997483165154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0896025669803034</v>
+        <v>0.08939359246648365</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1727553650367371</v>
+        <v>0.1767191648948532</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2379193498933183</v>
+        <v>0.241033259289156</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.1700836025747886</v>
+        <v>0.1669204529811847</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1031839430642436</v>
+        <v>0.1030356827419839</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1717475285665547</v>
+        <v>0.1813825877888944</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1217827629568378</v>
+        <v>0.1243126200332408</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08989385928921098</v>
+        <v>0.0905238037534863</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1252070165300015</v>
+        <v>0.1257910553434902</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1861050155520187</v>
+        <v>0.1861050155520188</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07784384310474318</v>
@@ -961,7 +961,7 @@
         <v>0.0175392337590682</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1462550214529258</v>
+        <v>0.1462550214529257</v>
       </c>
     </row>
     <row r="11">
@@ -972,38 +972,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03353703034118449</v>
+        <v>0.02850500253753996</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008414372677036009</v>
+        <v>0.008517012779403083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03381199518424191</v>
+        <v>0.03565528613437891</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02049734218235958</v>
+        <v>0.02078259681059497</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1062530071768838</v>
+        <v>0.1115481605117151</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04176300306261853</v>
+        <v>0.04045854445451324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01256047004169783</v>
+        <v>0.01303463097419812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005288565624534126</v>
+        <v>0.005327767940295802</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09356831506767384</v>
+        <v>0.08940016683812038</v>
       </c>
     </row>
     <row r="12">
@@ -1014,38 +1014,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1568171981911511</v>
+        <v>0.1540916233655744</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1578403956813456</v>
+        <v>0.1437979093696075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07311750067708279</v>
+        <v>0.08734054712116851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.22939628575288</v>
+        <v>0.2151771215072052</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1840369497770916</v>
+        <v>0.1915453852320202</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1433273848684071</v>
+        <v>0.1809588460942084</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3010925212622209</v>
+        <v>0.3075721469411601</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1336461228895768</v>
+        <v>0.1352675083093796</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1209268937762664</v>
+        <v>0.1178458993273123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05327860686283381</v>
+        <v>0.04652152755178771</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2315129602949112</v>
+        <v>0.2166075752154839</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.05429097373360882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07728566519678789</v>
+        <v>0.07728566519678788</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1316867186393154</v>
@@ -1093,7 +1093,7 @@
         <v>0.03805547192002538</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09239722345342562</v>
+        <v>0.09239722345342563</v>
       </c>
     </row>
     <row r="14">
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04462074720676837</v>
+        <v>0.04046176945308201</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02043816310394892</v>
+        <v>0.02077701587412812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03519348905438059</v>
+        <v>0.03611156143143121</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07173744219047976</v>
+        <v>0.08016879229837592</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06222922246755867</v>
+        <v>0.06025371858164257</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06553862932253691</v>
+        <v>0.06402451841095447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01453992721160182</v>
+        <v>0.01519292846537249</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01811207870141039</v>
+        <v>0.01734234929209632</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06177656060491819</v>
+        <v>0.05825193252217432</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1325319401882299</v>
+        <v>0.1297766134747988</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1503114580309173</v>
+        <v>0.1466259433004904</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1163426330157104</v>
+        <v>0.1224208060361537</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1365127110394248</v>
+        <v>0.1406377559053828</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2217546696126281</v>
+        <v>0.2380319868386018</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2152888746457775</v>
+        <v>0.2203246487711781</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.103771588503713</v>
+        <v>0.0771143412730442</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1754985025169507</v>
+        <v>0.175766165516852</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1476229303078932</v>
+        <v>0.1509861962001509</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1138415817377577</v>
+        <v>0.1305481452067149</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08224901068320498</v>
+        <v>0.0835548102970896</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1384201111660681</v>
+        <v>0.1373503825748195</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02466260171940221</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0930011943178546</v>
+        <v>0.09300119431785459</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09706912860001349</v>
@@ -1229,7 +1229,7 @@
         <v>0.03107256279413963</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09859468422985404</v>
+        <v>0.09859468422985405</v>
       </c>
     </row>
     <row r="17">
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01928503967461251</v>
+        <v>0.01756706258717588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07508073457716644</v>
+        <v>0.07172814440834813</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06756242123815775</v>
+        <v>0.06678987972572774</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01915936545519582</v>
+        <v>0.01838888204597694</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07828796779680422</v>
+        <v>0.0783738043201891</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05647942569834288</v>
+        <v>0.06052529138787869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1492238233511179</v>
+        <v>0.1416208733048175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1256912531364117</v>
+        <v>0.1224636872196535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04734982945718486</v>
+        <v>0.04943962496691168</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1243406044718341</v>
+        <v>0.1268568491459049</v>
       </c>
     </row>
     <row r="19">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4438</v>
+        <v>4456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4139</v>
+        <v>4155</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5808</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="7">
@@ -1630,38 +1630,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13696</v>
+        <v>14290</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7780</v>
+        <v>7980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6250</v>
+        <v>6169</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22890</v>
+        <v>21703</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6286</v>
+        <v>6367</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4409</v>
+        <v>4117</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3964</v>
+        <v>4536</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15905</v>
+        <v>15461</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7864</v>
+        <v>7912</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7053</v>
+        <v>6807</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23752</v>
+        <v>23778</v>
       </c>
     </row>
     <row r="8">
@@ -1764,38 +1764,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10660</v>
+        <v>10492</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8061</v>
+        <v>7977</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2189</v>
+        <v>2148</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2697</v>
+        <v>2553</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15301</v>
+        <v>15544</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13082</v>
+        <v>13302</v>
       </c>
     </row>
     <row r="11">
@@ -1806,38 +1806,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28203</v>
+        <v>28333</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6642</v>
+        <v>6312</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8690</v>
+        <v>8670</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22851</v>
+        <v>23375</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12561</v>
+        <v>12726</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>9448</v>
+        <v>9273</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10940</v>
+        <v>10924</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34139</v>
+        <v>36055</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7161</v>
+        <v>7309</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13712</v>
+        <v>13808</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29837</v>
+        <v>29976</v>
       </c>
     </row>
     <row r="12">
@@ -1940,38 +1940,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3687</v>
+        <v>3134</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2275</v>
+        <v>2399</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>7513</v>
+        <v>7888</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6535</v>
+        <v>6331</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>919</v>
+        <v>954</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12913</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="15">
@@ -1982,38 +1982,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17241</v>
+        <v>16941</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6619</v>
+        <v>6030</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8038</v>
+        <v>9602</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15436</v>
+        <v>14479</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8564</v>
+        <v>8913</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4477</v>
+        <v>5653</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>21291</v>
+        <v>21749</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20913</v>
+        <v>21166</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8848</v>
+        <v>8623</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9307</v>
+        <v>8126</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>31949</v>
+        <v>29892</v>
       </c>
     </row>
     <row r="16">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6079</v>
+        <v>5512</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1788</v>
+        <v>1817</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3756</v>
+        <v>3854</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6352</v>
+        <v>7099</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6582</v>
+        <v>6373</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14732</v>
+        <v>14391</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>852</v>
+        <v>890</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2781</v>
+        <v>2663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13128</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="19">
@@ -2160,40 +2160,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18055</v>
+        <v>17679</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4848</v>
+        <v>4729</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10177</v>
+        <v>10709</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14571</v>
+        <v>15011</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19637</v>
+        <v>21078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5667</v>
+        <v>5800</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6858</v>
+        <v>5096</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18563</v>
+        <v>18592</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33183</v>
+        <v>33939</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6668</v>
+        <v>7647</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>12630</v>
+        <v>12831</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29416</v>
+        <v>29188</v>
       </c>
     </row>
     <row r="20">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6714</v>
+        <v>6115</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28631</v>
+        <v>27353</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>23129</v>
+        <v>22865</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10814</v>
+        <v>10379</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>56655</v>
+        <v>56717</v>
       </c>
     </row>
     <row r="23">
@@ -2340,40 +2340,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19662</v>
+        <v>21070</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>56905</v>
+        <v>54006</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43029</v>
+        <v>41924</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>26725</v>
+        <v>27905</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>89982</v>
+        <v>91803</v>
       </c>
     </row>
     <row r="24">
